--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-02.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1632"/>
+  <dimension ref="A1:H1612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48405,10 +48405,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -48439,10 +48437,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -48473,10 +48469,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1491">
@@ -48507,10 +48501,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1492">
@@ -48537,10 +48529,8 @@
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1493">
@@ -48571,10 +48561,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -48605,10 +48593,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1495">
@@ -48639,10 +48625,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -48673,10 +48657,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -48707,10 +48689,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -48741,10 +48721,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -48767,10 +48745,8 @@
       <c r="E1499" t="inlineStr"/>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -48801,10 +48777,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -48835,10 +48809,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -48869,10 +48841,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -48895,10 +48865,8 @@
       <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -48925,10 +48893,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -48959,10 +48925,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -48993,10 +48957,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1507">
@@ -49027,10 +48989,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1508">
@@ -49061,10 +49021,8 @@
         </is>
       </c>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49091,10 +49049,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49129,10 +49085,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1511">
@@ -49167,10 +49121,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1512">
@@ -49201,10 +49153,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -49235,10 +49185,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -49269,10 +49217,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1515">
@@ -49303,10 +49249,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1516">
@@ -49337,10 +49281,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -49371,10 +49313,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -49405,10 +49345,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -49439,10 +49377,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -49473,10 +49409,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -49507,10 +49441,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -49541,10 +49473,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -49567,10 +49497,8 @@
       <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1524">
@@ -49601,10 +49529,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1525">
@@ -49635,10 +49561,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1526">
@@ -49665,10 +49589,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -49695,10 +49617,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -49721,10 +49641,8 @@
       <c r="E1528" t="inlineStr"/>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -49751,10 +49669,8 @@
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -49781,10 +49697,8 @@
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -49807,10 +49721,8 @@
       <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -49841,10 +49753,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -49875,10 +49785,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -49909,10 +49817,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -49943,10 +49849,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -49977,10 +49881,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50011,10 +49913,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1538">
@@ -50045,10 +49945,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50079,10 +49977,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50113,10 +50009,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -50147,10 +50041,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -50181,10 +50073,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -50215,10 +50105,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -50249,10 +50137,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -50283,10 +50169,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -50317,10 +50201,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -50347,10 +50229,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -50377,10 +50257,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -50403,10 +50281,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -50433,10 +50309,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -50463,10 +50337,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -50493,10 +50365,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -50523,10 +50393,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -50553,52 +50421,70 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
-      <c r="C1555" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1555" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
@@ -50610,65 +50496,61 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
           <t>3</t>
@@ -50678,7 +50560,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -50688,31 +50570,27 @@
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
@@ -50722,31 +50600,27 @@
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -50756,21 +50630,17 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
           <t>3</t>
@@ -50780,7 +50650,7 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
@@ -50790,21 +50660,17 @@
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -50814,69 +50680,57 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
           <t>3</t>
@@ -50886,31 +50740,27 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
           <t>3</t>
@@ -50920,31 +50770,27 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
           <t>3</t>
@@ -50954,165 +50800,153 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1567" t="inlineStr"/>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51124,29 +50958,29 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
@@ -51158,31 +50992,27 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
         <is>
           <t>3</t>
@@ -51192,29 +51022,29 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -51226,29 +51056,29 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
@@ -51260,31 +51090,27 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
         <is>
           <t>3</t>
@@ -51294,23 +51120,23 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
@@ -51324,85 +51150,77 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E1578" t="inlineStr"/>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
@@ -51414,7 +51232,7 @@
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -51426,37 +51244,41 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
@@ -51466,7 +51288,7 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
@@ -51476,17 +51298,21 @@
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -51496,7 +51322,7 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
@@ -51506,17 +51332,21 @@
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -51526,17 +51356,21 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1584" t="inlineStr">
         <is>
           <t>3</t>
@@ -51546,7 +51380,7 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -51556,17 +51390,21 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1585" t="inlineStr">
         <is>
           <t>3</t>
@@ -51576,339 +51414,383 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1586" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1589" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1590" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1596" t="inlineStr">
         <is>
           <t>3</t>
@@ -51918,63 +51800,63 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
@@ -51986,25 +51868,21 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E1599" t="inlineStr"/>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
@@ -52016,25 +51894,21 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E1600" t="inlineStr"/>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
@@ -52046,57 +51920,57 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr"/>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
           <t>3</t>
@@ -52106,165 +51980,145 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1604" t="inlineStr"/>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1605" t="inlineStr"/>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1606" t="inlineStr"/>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1607" t="inlineStr"/>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -52276,69 +52130,41 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1608" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1608" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr"/>
+      <c r="C1608" t="inlineStr"/>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
+      <c r="H1608" t="inlineStr"/>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -52348,51 +52174,51 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
@@ -52404,666 +52230,46 @@
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr">
-        <is>
           <t>0.4%</t>
         </is>
       </c>
+      <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1613" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1614" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1615" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H1619" t="inlineStr">
-        <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H1620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H1621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
-      <c r="H1622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
-      <c r="H1623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
-      <c r="H1624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr"/>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr"/>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr"/>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H1629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr"/>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H1630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr"/>
-      <c r="C1631" t="inlineStr"/>
-      <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
-      <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
-      <c r="H1631" t="inlineStr"/>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr"/>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-02.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2019"/>
+  <dimension ref="A1:H1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54707,10 +54707,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1684" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1685">
@@ -54745,10 +54743,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1685" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1686">
@@ -54783,10 +54779,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1687">
@@ -54809,10 +54803,8 @@
       <c r="E1687" t="inlineStr"/>
       <c r="F1687" t="inlineStr"/>
       <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1688">
@@ -54843,10 +54835,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1689">
@@ -54869,10 +54859,8 @@
       <c r="E1689" t="inlineStr"/>
       <c r="F1689" t="inlineStr"/>
       <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1690">
@@ -54907,10 +54895,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1690" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1691">
@@ -54937,10 +54923,8 @@
       </c>
       <c r="F1691" t="inlineStr"/>
       <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1692">
@@ -54975,10 +54959,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1693">
@@ -55013,10 +54995,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1694">
@@ -55047,10 +55027,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1695">
@@ -55085,10 +55063,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1696">
@@ -55123,10 +55099,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1697">
@@ -55161,10 +55135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1698">
@@ -55195,10 +55167,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1699">
@@ -55229,10 +55199,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1700">
@@ -55263,10 +55231,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1701">
@@ -55301,10 +55267,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1702">
@@ -55339,10 +55303,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1703">
@@ -55377,10 +55339,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1704">
@@ -55411,10 +55371,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1705">
@@ -55449,10 +55407,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1706">
@@ -55487,10 +55443,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1707">
@@ -55525,10 +55479,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1708">
@@ -55563,10 +55515,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1709">
@@ -55601,10 +55551,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1710">
@@ -55631,10 +55579,8 @@
       </c>
       <c r="F1710" t="inlineStr"/>
       <c r="G1710" t="inlineStr"/>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1711">
@@ -55661,10 +55607,8 @@
       </c>
       <c r="F1711" t="inlineStr"/>
       <c r="G1711" t="inlineStr"/>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1712">
@@ -55691,10 +55635,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1713">
@@ -55739,10 +55681,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1714" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1715">
@@ -55773,10 +55713,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H1715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1716">
@@ -55807,10 +55745,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1717">
@@ -55841,10 +55777,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H1717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1718">
@@ -55885,10 +55819,8 @@
       </c>
       <c r="F1719" t="inlineStr"/>
       <c r="G1719" t="inlineStr"/>
-      <c r="H1719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1720">
@@ -55923,10 +55855,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H1720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1721">
@@ -55953,10 +55883,8 @@
       </c>
       <c r="F1721" t="inlineStr"/>
       <c r="G1721" t="inlineStr"/>
-      <c r="H1721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1722">
@@ -55983,10 +55911,8 @@
       </c>
       <c r="F1722" t="inlineStr"/>
       <c r="G1722" t="inlineStr"/>
-      <c r="H1722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1723">
@@ -56013,10 +55939,8 @@
       </c>
       <c r="F1723" t="inlineStr"/>
       <c r="G1723" t="inlineStr"/>
-      <c r="H1723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1724">
@@ -56047,10 +55971,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1725">
@@ -56081,10 +56003,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1726">
@@ -56115,10 +56035,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1726" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1727">
@@ -56149,10 +56067,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H1727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1728">
@@ -56183,10 +56099,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H1728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1729">
@@ -56209,10 +56123,8 @@
       <c r="E1729" t="inlineStr"/>
       <c r="F1729" t="inlineStr"/>
       <c r="G1729" t="inlineStr"/>
-      <c r="H1729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1730">
@@ -56243,10 +56155,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1731">
@@ -56277,10 +56187,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1732">
@@ -56311,10 +56219,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1733">
@@ -56345,10 +56251,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1734">
@@ -56379,10 +56283,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1735">
@@ -56413,10 +56315,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1736">
@@ -56443,10 +56343,8 @@
       </c>
       <c r="F1736" t="inlineStr"/>
       <c r="G1736" t="inlineStr"/>
-      <c r="H1736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1737">
@@ -56473,10 +56371,8 @@
       </c>
       <c r="F1737" t="inlineStr"/>
       <c r="G1737" t="inlineStr"/>
-      <c r="H1737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1738">
@@ -56503,10 +56399,8 @@
       </c>
       <c r="F1738" t="inlineStr"/>
       <c r="G1738" t="inlineStr"/>
-      <c r="H1738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1739">
@@ -56541,10 +56435,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1740">
@@ -56575,10 +56467,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1741">
@@ -56609,10 +56499,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1742">
@@ -56639,10 +56527,8 @@
       </c>
       <c r="F1742" t="inlineStr"/>
       <c r="G1742" t="inlineStr"/>
-      <c r="H1742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1743">
@@ -56669,10 +56555,8 @@
       </c>
       <c r="F1743" t="inlineStr"/>
       <c r="G1743" t="inlineStr"/>
-      <c r="H1743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1744">
@@ -56699,10 +56583,8 @@
       </c>
       <c r="F1744" t="inlineStr"/>
       <c r="G1744" t="inlineStr"/>
-      <c r="H1744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1745">
@@ -56729,10 +56611,8 @@
       </c>
       <c r="F1745" t="inlineStr"/>
       <c r="G1745" t="inlineStr"/>
-      <c r="H1745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1746">
@@ -56763,10 +56643,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1746" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1746" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1747">
@@ -56797,10 +56675,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1748">
@@ -56819,10 +56695,8 @@
       <c r="E1748" t="inlineStr"/>
       <c r="F1748" t="inlineStr"/>
       <c r="G1748" t="inlineStr"/>
-      <c r="H1748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1749">
@@ -56853,10 +56727,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1750">
@@ -56887,10 +56759,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1751">
@@ -56931,10 +56801,8 @@
       </c>
       <c r="F1752" t="inlineStr"/>
       <c r="G1752" t="inlineStr"/>
-      <c r="H1752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1753">
@@ -56965,10 +56833,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1754">
@@ -56999,10 +56865,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1755">
@@ -57033,10 +56897,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1756">
@@ -57067,10 +56929,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1757">
@@ -57101,10 +56961,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="H1757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1758">
@@ -57135,10 +56993,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1759">
@@ -57165,10 +57021,8 @@
       </c>
       <c r="F1759" t="inlineStr"/>
       <c r="G1759" t="inlineStr"/>
-      <c r="H1759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1760">
@@ -57191,10 +57045,8 @@
       <c r="E1760" t="inlineStr"/>
       <c r="F1760" t="inlineStr"/>
       <c r="G1760" t="inlineStr"/>
-      <c r="H1760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1761">
@@ -57217,10 +57069,8 @@
       <c r="E1761" t="inlineStr"/>
       <c r="F1761" t="inlineStr"/>
       <c r="G1761" t="inlineStr"/>
-      <c r="H1761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1762">
@@ -57243,10 +57093,8 @@
       <c r="E1762" t="inlineStr"/>
       <c r="F1762" t="inlineStr"/>
       <c r="G1762" t="inlineStr"/>
-      <c r="H1762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1763">
@@ -57273,10 +57121,8 @@
       </c>
       <c r="F1763" t="inlineStr"/>
       <c r="G1763" t="inlineStr"/>
-      <c r="H1763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1764">
@@ -57311,10 +57157,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1764" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1764" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1765">
@@ -57345,10 +57189,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1766">
@@ -57379,10 +57221,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1767">
@@ -57413,10 +57253,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1768">
@@ -57443,10 +57281,8 @@
       </c>
       <c r="F1768" t="inlineStr"/>
       <c r="G1768" t="inlineStr"/>
-      <c r="H1768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1769">
@@ -57477,10 +57313,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1770">
@@ -57511,10 +57345,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1771">
@@ -57545,10 +57377,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1772">
@@ -57579,10 +57409,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1773">
@@ -57613,10 +57441,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1774">
@@ -57651,10 +57477,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1775">
@@ -57685,10 +57509,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1776">
@@ -57719,10 +57541,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1777">
@@ -57753,10 +57573,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1778">
@@ -57787,10 +57605,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1779">
@@ -57821,10 +57637,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1780">
@@ -57851,10 +57665,8 @@
       </c>
       <c r="F1780" t="inlineStr"/>
       <c r="G1780" t="inlineStr"/>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1781">
@@ -57881,10 +57693,8 @@
       </c>
       <c r="F1781" t="inlineStr"/>
       <c r="G1781" t="inlineStr"/>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1782">
@@ -57911,10 +57721,8 @@
       </c>
       <c r="F1782" t="inlineStr"/>
       <c r="G1782" t="inlineStr"/>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1783">
@@ -57941,10 +57749,8 @@
       </c>
       <c r="F1783" t="inlineStr"/>
       <c r="G1783" t="inlineStr"/>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1784">
@@ -57971,10 +57777,8 @@
       </c>
       <c r="F1784" t="inlineStr"/>
       <c r="G1784" t="inlineStr"/>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1785">
@@ -58005,10 +57809,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1786">
@@ -58039,10 +57841,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1787">
@@ -58073,10 +57873,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1788">
@@ -58107,10 +57905,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1789">
@@ -58141,10 +57937,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1790">
@@ -58175,10 +57969,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -58209,10 +58001,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1792">
@@ -58243,10 +58033,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1793">
@@ -58273,10 +58061,8 @@
       </c>
       <c r="F1793" t="inlineStr"/>
       <c r="G1793" t="inlineStr"/>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1794">
@@ -58321,10 +58107,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1796">
@@ -58355,10 +58139,8 @@
           <t>-22</t>
         </is>
       </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1797">
@@ -58389,10 +58171,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1798">
@@ -58423,10 +58203,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1799">
@@ -58457,10 +58235,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1800">
@@ -58491,10 +58267,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1801">
@@ -58525,10 +58299,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -58559,10 +58331,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1803">
@@ -58593,10 +58363,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1804">
@@ -58623,10 +58391,8 @@
       </c>
       <c r="F1804" t="inlineStr"/>
       <c r="G1804" t="inlineStr"/>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -58653,10 +58419,8 @@
       </c>
       <c r="F1805" t="inlineStr"/>
       <c r="G1805" t="inlineStr"/>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -58683,10 +58447,8 @@
       </c>
       <c r="F1806" t="inlineStr"/>
       <c r="G1806" t="inlineStr"/>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -58717,10 +58479,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1808">
@@ -58747,10 +58507,8 @@
       </c>
       <c r="F1808" t="inlineStr"/>
       <c r="G1808" t="inlineStr"/>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1809">
@@ -58777,10 +58535,8 @@
       </c>
       <c r="F1809" t="inlineStr"/>
       <c r="G1809" t="inlineStr"/>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -58807,10 +58563,8 @@
       </c>
       <c r="F1810" t="inlineStr"/>
       <c r="G1810" t="inlineStr"/>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -58837,10 +58591,8 @@
       </c>
       <c r="F1811" t="inlineStr"/>
       <c r="G1811" t="inlineStr"/>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -58867,10 +58619,8 @@
       </c>
       <c r="F1812" t="inlineStr"/>
       <c r="G1812" t="inlineStr"/>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -58901,10 +58651,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1814">
@@ -58935,10 +58683,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1815">
@@ -58969,10 +58715,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1816">
@@ -58995,10 +58739,8 @@
       <c r="E1816" t="inlineStr"/>
       <c r="F1816" t="inlineStr"/>
       <c r="G1816" t="inlineStr"/>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1817">
@@ -59033,10 +58775,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1818">
@@ -59059,10 +58799,8 @@
       <c r="E1818" t="inlineStr"/>
       <c r="F1818" t="inlineStr"/>
       <c r="G1818" t="inlineStr"/>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1819">
@@ -59089,10 +58827,8 @@
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="inlineStr"/>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1820">
@@ -59119,10 +58855,8 @@
       </c>
       <c r="F1820" t="inlineStr"/>
       <c r="G1820" t="inlineStr"/>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1821">
@@ -59145,10 +58879,8 @@
       <c r="E1821" t="inlineStr"/>
       <c r="F1821" t="inlineStr"/>
       <c r="G1821" t="inlineStr"/>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -59171,10 +58903,8 @@
       <c r="E1822" t="inlineStr"/>
       <c r="F1822" t="inlineStr"/>
       <c r="G1822" t="inlineStr"/>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59197,10 +58927,8 @@
       <c r="E1823" t="inlineStr"/>
       <c r="F1823" t="inlineStr"/>
       <c r="G1823" t="inlineStr"/>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59223,10 +58951,8 @@
       <c r="E1824" t="inlineStr"/>
       <c r="F1824" t="inlineStr"/>
       <c r="G1824" t="inlineStr"/>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59249,10 +58975,8 @@
       <c r="E1825" t="inlineStr"/>
       <c r="F1825" t="inlineStr"/>
       <c r="G1825" t="inlineStr"/>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59275,10 +58999,8 @@
       <c r="E1826" t="inlineStr"/>
       <c r="F1826" t="inlineStr"/>
       <c r="G1826" t="inlineStr"/>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -59301,10 +59023,8 @@
       <c r="E1827" t="inlineStr"/>
       <c r="F1827" t="inlineStr"/>
       <c r="G1827" t="inlineStr"/>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59335,10 +59055,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59369,10 +59087,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59399,10 +59115,8 @@
       </c>
       <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="inlineStr"/>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59437,10 +59151,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1832">
@@ -59463,10 +59175,8 @@
       <c r="E1832" t="inlineStr"/>
       <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr"/>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1833">
@@ -59497,10 +59207,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1834">
@@ -59527,10 +59235,8 @@
       </c>
       <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr"/>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59557,10 +59263,8 @@
       </c>
       <c r="F1835" t="inlineStr"/>
       <c r="G1835" t="inlineStr"/>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -59591,10 +59295,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -59617,10 +59319,8 @@
       <c r="E1837" t="inlineStr"/>
       <c r="F1837" t="inlineStr"/>
       <c r="G1837" t="inlineStr"/>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -59651,10 +59351,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -59685,10 +59383,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -59733,10 +59429,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1842">
@@ -59763,10 +59457,8 @@
       </c>
       <c r="F1842" t="inlineStr"/>
       <c r="G1842" t="inlineStr"/>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -59797,10 +59489,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -59831,10 +59521,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1845">
@@ -59865,10 +59553,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1846">
@@ -59899,10 +59585,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -59933,10 +59617,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -59967,10 +59649,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1849">
@@ -60001,10 +59681,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -60035,10 +59713,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60069,10 +59745,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60103,10 +59777,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60137,10 +59809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -60171,10 +59841,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1855">
@@ -60205,10 +59873,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1856">
@@ -60239,10 +59905,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1857">
@@ -60273,10 +59937,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1858">
@@ -60307,10 +59969,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60337,10 +59997,8 @@
       </c>
       <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr"/>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60371,10 +60029,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1861">
@@ -60405,10 +60061,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1862">
@@ -60439,10 +60093,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1863">
@@ -60473,10 +60125,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60507,10 +60157,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60541,10 +60189,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1866">
@@ -60575,10 +60221,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1867">
@@ -60605,10 +60249,8 @@
       </c>
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1868">
@@ -60639,10 +60281,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1869">
@@ -60673,10 +60313,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1870">
@@ -60707,10 +60345,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -60741,10 +60377,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -60775,10 +60409,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -60809,10 +60441,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -60835,10 +60465,8 @@
       <c r="E1874" t="inlineStr"/>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -60869,10 +60497,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -60903,10 +60529,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -60937,10 +60561,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -60963,10 +60585,8 @@
       <c r="E1878" t="inlineStr"/>
       <c r="F1878" t="inlineStr"/>
       <c r="G1878" t="inlineStr"/>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -60993,10 +60613,8 @@
       </c>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61027,10 +60645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1881">
@@ -61061,10 +60677,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1882">
@@ -61095,10 +60709,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1883">
@@ -61129,10 +60741,8 @@
         </is>
       </c>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61159,10 +60769,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61197,10 +60805,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1886">
@@ -61235,10 +60841,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1887">
@@ -61269,10 +60873,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61303,10 +60905,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61337,10 +60937,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1890">
@@ -61371,10 +60969,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1891">
@@ -61405,10 +61001,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1892">
@@ -61439,10 +61033,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61473,10 +61065,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61507,10 +61097,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61541,10 +61129,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61575,10 +61161,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61609,10 +61193,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61635,10 +61217,8 @@
       <c r="E1898" t="inlineStr"/>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr"/>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1899">
@@ -61669,10 +61249,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -61703,10 +61281,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1901">
@@ -61733,10 +61309,8 @@
       </c>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -61763,10 +61337,8 @@
       </c>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -61789,10 +61361,8 @@
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -61819,10 +61389,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -61849,10 +61417,8 @@
       </c>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr"/>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -61875,10 +61441,8 @@
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -61909,10 +61473,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1908">
@@ -61943,10 +61505,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -61977,10 +61537,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62011,10 +61569,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62045,10 +61601,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62079,10 +61633,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1913">
@@ -62113,10 +61665,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1914">
@@ -62147,10 +61697,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1915">
@@ -62181,10 +61729,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62215,10 +61761,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -62249,10 +61793,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62283,10 +61825,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62317,10 +61857,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62351,10 +61889,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62385,10 +61921,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62415,10 +61949,8 @@
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62445,10 +61977,8 @@
       </c>
       <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr"/>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62471,10 +62001,8 @@
       </c>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62501,10 +62029,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -62531,10 +62057,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -62561,10 +62085,8 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62591,10 +62113,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62621,52 +62141,70 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr"/>
-      <c r="C1930" t="inlineStr"/>
+          <t>03:55 AM</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>Unemployment ChangeJAN</t>
+        </is>
+      </c>
       <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr"/>
+      <c r="G1930" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H1930" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1931" t="inlineStr">
@@ -62678,65 +62216,61 @@
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1933" t="inlineStr"/>
       <c r="H1933" t="inlineStr">
         <is>
           <t>3</t>
@@ -62746,7 +62280,7 @@
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
@@ -62756,31 +62290,27 @@
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1934" t="inlineStr"/>
       <c r="H1934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
@@ -62790,31 +62320,27 @@
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1935" t="inlineStr"/>
       <c r="H1935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
@@ -62824,21 +62350,17 @@
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1936" t="inlineStr"/>
       <c r="H1936" t="inlineStr">
         <is>
           <t>3</t>
@@ -62848,7 +62370,7 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
@@ -62858,21 +62380,17 @@
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1937" t="inlineStr"/>
       <c r="H1937" t="inlineStr">
         <is>
           <t>3</t>
@@ -62882,69 +62400,57 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1938" t="inlineStr"/>
       <c r="H1938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1939" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1939" t="inlineStr"/>
+      <c r="G1939" t="inlineStr"/>
       <c r="H1939" t="inlineStr">
         <is>
           <t>3</t>
@@ -62954,31 +62460,27 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1940" t="inlineStr"/>
       <c r="H1940" t="inlineStr">
         <is>
           <t>3</t>
@@ -62988,31 +62490,27 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1941" t="inlineStr"/>
       <c r="H1941" t="inlineStr">
         <is>
           <t>3</t>
@@ -63022,165 +62520,153 @@
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1942" t="inlineStr"/>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1943" t="inlineStr"/>
       <c r="H1943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1944" t="inlineStr"/>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1946" t="inlineStr">
@@ -63192,29 +62678,29 @@
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1947" t="inlineStr">
@@ -63226,31 +62712,27 @@
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1948" t="inlineStr"/>
       <c r="H1948" t="inlineStr">
         <is>
           <t>3</t>
@@ -63260,29 +62742,29 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1949" t="inlineStr">
@@ -63294,29 +62776,29 @@
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1950" t="inlineStr">
@@ -63328,31 +62810,27 @@
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1951" t="inlineStr"/>
       <c r="H1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -63362,23 +62840,23 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
@@ -63392,85 +62870,77 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
-      <c r="E1953" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E1953" t="inlineStr"/>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1953" t="inlineStr"/>
       <c r="H1953" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
@@ -63482,7 +62952,7 @@
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H1955" t="inlineStr">
@@ -63494,37 +62964,41 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr"/>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
@@ -63534,7 +63008,7 @@
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
@@ -63544,17 +63018,21 @@
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr"/>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
@@ -63564,7 +63042,7 @@
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
@@ -63574,17 +63052,21 @@
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
-      <c r="G1958" t="inlineStr"/>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
@@ -63594,17 +63076,21 @@
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr"/>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1959" t="inlineStr">
         <is>
           <t>3</t>
@@ -63614,7 +63100,7 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
@@ -63624,17 +63110,21 @@
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1960" t="inlineStr">
         <is>
           <t>3</t>
@@ -63644,339 +63134,383 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1961" t="inlineStr"/>
-      <c r="G1961" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
-      <c r="G1962" t="inlineStr"/>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1962" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr"/>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1963" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1964" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr"/>
+      <c r="G1966" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr"/>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1971" t="inlineStr">
         <is>
           <t>3</t>
@@ -63986,63 +63520,63 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H1973" t="inlineStr">
@@ -64054,25 +63588,21 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
-      <c r="E1974" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
@@ -64084,25 +63614,21 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
@@ -64114,57 +63640,57 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
-      <c r="E1976" t="inlineStr"/>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
           <t>3</t>
@@ -64174,165 +63700,145 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1979" t="inlineStr"/>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1980" t="inlineStr"/>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1981">
-      <c r="A1981" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1981" t="inlineStr"/>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1982">
-      <c r="A1982" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1982" t="inlineStr"/>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64344,69 +63850,41 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr"/>
+      <c r="C1983" t="inlineStr"/>
       <c r="D1983" t="inlineStr"/>
-      <c r="E1983" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1983" t="inlineStr"/>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
+      <c r="H1983" t="inlineStr"/>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1984" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="F1984" t="inlineStr"/>
+      <c r="G1984" t="inlineStr"/>
       <c r="H1984" t="inlineStr">
         <is>
           <t>2</t>
@@ -64416,51 +63894,51 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
@@ -64472,117 +63950,101 @@
       <c r="F1986" t="inlineStr"/>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1986" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1987" t="inlineStr">
-        <is>
           <t>0.4%</t>
         </is>
       </c>
+      <c r="F1987" t="inlineStr"/>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1988" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr"/>
+      <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1989" t="inlineStr">
@@ -64594,17 +64056,17 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
@@ -64616,7 +64078,7 @@
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1990" t="inlineStr">
@@ -64628,167 +64090,147 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G1994" t="inlineStr"/>
       <c r="H1994" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
+      <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
         <is>
           <t>2</t>
@@ -64798,81 +64240,89 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr"/>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
@@ -64884,634 +64334,30 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr"/>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr">
-        <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr"/>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr"/>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr"/>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr"/>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr"/>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr"/>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr"/>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr">
-        <is>
-          <t>BoJ Summary of Opinions</t>
-        </is>
-      </c>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr">
-        <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>08:45 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>Caixin Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
